--- a/kadai-4/CP-Signal-Blank_4-456.xlsx
+++ b/kadai-4/CP-Signal-Blank_4-456.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadouchihiro/Documents/TA/実験C_2022/授業資料/コード/Lab1-Assignment_20230912/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogatakatsuya/Downloads/Work/college/Jikken-C/kadai-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15578479-2A11-1E44-ADA5-CDFD5222647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA189C18-36F5-C148-B426-3C3027E0F98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="17500" xr2:uid="{6394A51B-F6CE-2347-9DD7-715F4286923A}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" activeTab="2" xr2:uid="{6394A51B-F6CE-2347-9DD7-715F4286923A}"/>
   </bookViews>
   <sheets>
     <sheet name="外部出力脱出信号" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
   <si>
     <t>信号名</t>
   </si>
@@ -231,24 +231,198 @@
   <si>
     <t>selMuxDIn</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>qJCintA='0'</t>
+  </si>
+  <si>
+    <t>fetch2</t>
+  </si>
+  <si>
+    <t>ls1</t>
+  </si>
+  <si>
+    <t>acn</t>
+  </si>
+  <si>
+    <t>stda2</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>fetch1</t>
+  </si>
+  <si>
+    <t>j3</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>qJCintB="10" and (IR=SETIXH, SETIXL, LDIA, LDIB, JP, JPZ(Z=1), JPC(C=1))</t>
+  </si>
+  <si>
+    <t>qJCintF="100"</t>
+  </si>
+  <si>
+    <t>qJCintE="10"</t>
+  </si>
+  <si>
+    <t>qJCintC="11" and (IR=LDDA, LDDB)</t>
+  </si>
+  <si>
+    <t>qJCintD="1"</t>
+  </si>
+  <si>
+    <t>qJCintB="10" and (IR=LDDA, LDDB)</t>
+  </si>
+  <si>
+    <t>qJCintB="10" and IR=STDA</t>
+  </si>
+  <si>
+    <t>qJCintB="10" and IR=STDB</t>
+  </si>
+  <si>
+    <t>qJCintF="110"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	qJCintC="11" and (IR=LDDA, LDDB)</t>
+  </si>
+  <si>
+    <t>qJCintB="10" and IR=STDI</t>
+  </si>
+  <si>
+    <t>qJCintB="11"</t>
+  </si>
+  <si>
+    <t>常にL</t>
+  </si>
+  <si>
+    <t>anc</t>
+  </si>
+  <si>
+    <t>qJCintB="10" and (IR=STDA, STDB)</t>
+  </si>
+  <si>
+    <t>qJCintB="10" and IR=(JP, JPZ(Z=1), JPC(C=1), STD)</t>
+  </si>
+  <si>
+    <t>qJCintA="0"</t>
+  </si>
+  <si>
+    <t>cJCintD="1"</t>
+  </si>
+  <si>
+    <t>cJCintE="10"</t>
+  </si>
+  <si>
+    <t>cJCintA="0"</t>
+  </si>
+  <si>
+    <t>cJCintC="11"</t>
+  </si>
+  <si>
+    <t>cJCintF="100"</t>
+  </si>
+  <si>
+    <t>cJCintB="10" and (IR=SETIXH, SETIXL, LDIA, LDIB, LDDA, LDDB)</t>
+  </si>
+  <si>
+    <t>cJCintB="10" and (IR=ADDA, INCA, DECA, SUBA, ANDA, ORA, NOTA, ADDB, INCB, DECB, SUBB, ANDB, ORB, NOTB, CMP, JPZ(Z=2), JPC(C=0), NOP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acn </t>
+  </si>
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>ls0</t>
+  </si>
+  <si>
+    <t>j0</t>
+  </si>
+  <si>
+    <t>qJCintD="1" and IR=(ADDA, SUBA, ANDA, ORA, NOTA, INCA, DECA, ADDB, SUBB, ANDB, ORB, NOTB, INCB, DECB, CMP)</t>
+  </si>
+  <si>
+    <t>qJCintF="110" and IR=(JP, JPZ(Z=1), JPC(C=1))</t>
+  </si>
+  <si>
+    <t>qJCintC="11" and IR=SETIXH</t>
+  </si>
+  <si>
+    <t>qJCintC="11" and IR=SETIXL</t>
+  </si>
+  <si>
+    <t>qJCintF="011" and IR=STD1</t>
+  </si>
+  <si>
+    <t>qJCintB="10"</t>
+  </si>
+  <si>
+    <t>qJCintF="011"</t>
+  </si>
+  <si>
+    <t>qJCintC="11" and IR=(LDIA, LDIB, LDDA, LDDB)</t>
+  </si>
+  <si>
+    <t>qJCintD="7" and IR=(ADDA, SUBA, ANDA, ORA, NOTA, INCA, DECA, ADDB, SUBB, ANDB, ORB, NOTB, INCB, DECB, CMP)</t>
+  </si>
+  <si>
+    <t>qJCintD="7" and IR=(ADDA, SUBA, INCA, DECA, ADDB, SUBB, INCB, DECB)</t>
+  </si>
+  <si>
+    <t>qJCintF="011" and IR=(JP, JPZ(Z=1), JPC(C=1))</t>
+  </si>
+  <si>
+    <t>qJCintF="100" and IR=(JP, JPZ(Z=1), JPC(C=1))</t>
+  </si>
+  <si>
+    <t>qjCintC="11" and IR=(LDIA, LDDA)</t>
+  </si>
+  <si>
+    <t>qJCintD="1", and IR=(ADDB, INCB, DECB, SUBB, ANDB, ORB, NOTB)</t>
+  </si>
+  <si>
+    <t>qjCintC="11" and IR=(LDIB, LDDB)</t>
+  </si>
+  <si>
+    <t>qJCintD="1", and IR=(ADDA, INCA, DECA, SUBA, ANDA, ORA, NOTA)</t>
+  </si>
+  <si>
+    <t>qJCintC="11" and IR = (SETIXH, SETIXL, LDIA, LDIB)</t>
+  </si>
+  <si>
+    <t>qJCintD="1" and IR=(JPZ(Z=0), JPC(C=0))</t>
+  </si>
+  <si>
+    <t>qJCintC="01" and IR=(LDIA, LDIB, LDDA, LDDB)</t>
+  </si>
+  <si>
+    <t>qJCintF="001" and IR=STD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -256,7 +430,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -525,7 +699,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,9 +715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -581,7 +755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -687,7 +861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,18 +1013,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C544D267-9D28-B947-9B95-9388BBBC6262}">
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="21" thickBot="1"/>
-    <row r="2" spans="2:6" ht="21" thickBot="1">
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -867,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -877,45 +1051,69 @@
       <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="E8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -925,10 +1123,14 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -938,10 +1140,14 @@
       <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
@@ -951,10 +1157,14 @@
       <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="E11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
@@ -964,10 +1174,14 @@
       <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="E12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
@@ -977,17 +1191,25 @@
       <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="E14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -997,8 +1219,12 @@
       <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1011,17 +1237,17 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="21" thickBot="1"/>
-    <row r="2" spans="2:6" ht="21" thickBot="1">
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1047,9 +1273,11 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1059,38 +1287,58 @@
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="E8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1100,10 +1348,14 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1113,10 +1365,14 @@
       <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
@@ -1126,10 +1382,14 @@
       <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="E11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
@@ -1139,10 +1399,14 @@
       <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="E12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1158,17 +1422,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA15F7E-8ECB-7A45-8ED0-E60AE195FA47}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1177,7 +1441,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>0</v>
@@ -1196,7 +1460,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="20" t="s">
         <v>27</v>
@@ -1207,11 +1471,15 @@
       <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="23" t="s">
         <v>28</v>
@@ -1222,11 +1490,15 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="23" t="s">
         <v>29</v>
@@ -1237,11 +1509,15 @@
       <c r="D5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="23" t="s">
         <v>32</v>
@@ -1252,11 +1528,15 @@
       <c r="D6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="23" t="s">
         <v>33</v>
@@ -1267,11 +1547,15 @@
       <c r="D7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
@@ -1282,11 +1566,15 @@
       <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
         <v>35</v>
@@ -1297,11 +1585,15 @@
       <c r="D9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>84</v>
+      </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
         <v>36</v>
@@ -1312,11 +1604,15 @@
       <c r="D10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="23" t="s">
         <v>37</v>
@@ -1327,11 +1623,15 @@
       <c r="D11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="23" t="s">
         <v>38</v>
@@ -1342,11 +1642,15 @@
       <c r="D12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="25" t="s">
         <v>39</v>
@@ -1357,20 +1661,28 @@
       <c r="D13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
         <v>40</v>
       </c>
@@ -1380,17 +1692,25 @@
       <c r="D15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="E16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>41</v>
       </c>
@@ -1400,10 +1720,14 @@
       <c r="D17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="E17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
         <v>42</v>
       </c>
@@ -1413,24 +1737,36 @@
       <c r="D18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="E18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="E19" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="E20" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>43</v>
       </c>
@@ -1440,10 +1776,14 @@
       <c r="D21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="E21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>44</v>
       </c>
@@ -1453,29 +1793,45 @@
       <c r="D22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="E22" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="E23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="E24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/kadai-4/CP-Signal-Blank_4-456.xlsx
+++ b/kadai-4/CP-Signal-Blank_4-456.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogatakatsuya/Downloads/Work/college/Jikken-C/kadai-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA189C18-36F5-C148-B426-3C3027E0F98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB3A6D1-9402-D340-921A-4A33FEC8E637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" activeTab="2" xr2:uid="{6394A51B-F6CE-2347-9DD7-715F4286923A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{6394A51B-F6CE-2347-9DD7-715F4286923A}"/>
   </bookViews>
   <sheets>
     <sheet name="外部出力脱出信号" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>信号名</t>
   </si>
@@ -251,18 +251,9 @@
     <t>stda2</t>
   </si>
   <si>
-    <t>j4</t>
-  </si>
-  <si>
     <t>fetch1</t>
   </si>
   <si>
-    <t>j3</t>
-  </si>
-  <si>
-    <t>js</t>
-  </si>
-  <si>
     <t>qJCintB="10" and (IR=SETIXH, SETIXL, LDIA, LDIB, JP, JPZ(Z=1), JPC(C=1))</t>
   </si>
   <si>
@@ -332,21 +323,12 @@
     <t>cJCintB="10" and (IR=SETIXH, SETIXL, LDIA, LDIB, LDDA, LDDB)</t>
   </si>
   <si>
-    <t>cJCintB="10" and (IR=ADDA, INCA, DECA, SUBA, ANDA, ORA, NOTA, ADDB, INCB, DECB, SUBB, ANDB, ORB, NOTB, CMP, JPZ(Z=2), JPC(C=0), NOP)</t>
-  </si>
-  <si>
     <t xml:space="preserve">acn </t>
   </si>
   <si>
-    <t>j1</t>
-  </si>
-  <si>
     <t>ls0</t>
   </si>
   <si>
-    <t>j0</t>
-  </si>
-  <si>
     <t>qJCintD="1" and IR=(ADDA, SUBA, ANDA, ORA, NOTA, INCA, DECA, ADDB, SUBB, ANDB, ORB, NOTB, INCB, DECB, CMP)</t>
   </si>
   <si>
@@ -359,9 +341,6 @@
     <t>qJCintC="11" and IR=SETIXL</t>
   </si>
   <si>
-    <t>qJCintF="011" and IR=STD1</t>
-  </si>
-  <si>
     <t>qJCintB="10"</t>
   </si>
   <si>
@@ -404,7 +383,25 @@
     <t>qJCintC="01" and IR=(LDIA, LDIB, LDDA, LDDB)</t>
   </si>
   <si>
-    <t>qJCintF="001" and IR=STD1</t>
+    <t>js4</t>
+  </si>
+  <si>
+    <t>js3</t>
+  </si>
+  <si>
+    <t>cJCintB="10" and (IR=ADDA, INCA, DECA, SUBA, ANDA, ORA, NOTA, ADDB, INCB, DECB, SUBB, ANDB, ORB, NOTB, CMP, JPZ(Z=0), JPC(C=0), NOP)</t>
+  </si>
+  <si>
+    <t>js1</t>
+  </si>
+  <si>
+    <t>js0</t>
+  </si>
+  <si>
+    <t>qJCintF="011" and IR=STDI</t>
+  </si>
+  <si>
+    <t>qJCintF="001" and IR=STDI</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C544D267-9D28-B947-9B95-9388BBBC6262}">
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1063,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -1077,7 +1074,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -1088,7 +1085,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -1099,7 +1096,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -1107,10 +1104,10 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -1127,7 +1124,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -1144,7 +1141,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -1161,7 +1158,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -1178,7 +1175,7 @@
         <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -1192,10 +1189,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -1203,10 +1200,10 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -1223,7 +1220,7 @@
         <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1236,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B42D5-BAEE-904D-BCA1-0DF3C79B9D09}">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,7 +1271,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -1291,7 +1288,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -1302,7 +1299,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -1310,10 +1307,10 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -1324,7 +1321,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -1332,10 +1329,10 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -1352,7 +1349,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -1369,7 +1366,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -1386,7 +1383,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -1403,7 +1400,7 @@
         <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -1422,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA15F7E-8ECB-7A45-8ED0-E60AE195FA47}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,7 +1472,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -1491,10 +1488,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" s="17"/>
     </row>
@@ -1510,10 +1507,10 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G5" s="17"/>
     </row>
@@ -1529,10 +1526,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G6" s="17"/>
     </row>
@@ -1548,10 +1545,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G7" s="17"/>
     </row>
@@ -1567,10 +1564,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -1586,10 +1583,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G9" s="17"/>
     </row>
@@ -1605,10 +1602,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -1627,7 +1624,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -1646,7 +1643,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -1665,7 +1662,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G13" s="17"/>
     </row>
@@ -1675,10 +1672,10 @@
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -1696,7 +1693,7 @@
         <v>48</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1704,10 +1701,10 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1721,10 +1718,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1741,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1752,7 +1749,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1760,10 +1757,10 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="20" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -1777,10 +1774,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -1794,10 +1791,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1808,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -1816,10 +1813,10 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="22" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -1827,10 +1824,10 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="20" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
